--- a/static/xlsx/Topluluk Ekibi.xlsx
+++ b/static/xlsx/Topluluk Ekibi.xlsx
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,6 +205,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -214,52 +243,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +280,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -283,22 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,36 +336,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,49 +350,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,120 +518,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -525,12 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,41 +544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +592,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -632,27 +641,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,130 +662,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/static/xlsx/Topluluk Ekibi.xlsx
+++ b/static/xlsx/Topluluk Ekibi.xlsx
@@ -43,7 +43,7 @@
     <t>Ata Turhan</t>
   </si>
   <si>
-    <t>Kurucu ve Topluluk Başkanı</t>
+    <t>Kurucu ve İlk Topluluk Başkanı</t>
   </si>
   <si>
     <t>ata-turhan</t>
@@ -52,7 +52,7 @@
     <t>Sabri Pişkin</t>
   </si>
   <si>
-    <t>Topluluk Başkan Yardımcısı</t>
+    <t>Mevcut Topluluk Başkan</t>
   </si>
   <si>
     <t>sabrimertpiskin</t>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -212,6 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -219,8 +227,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,45 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,30 +260,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,16 +283,52 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,25 +350,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,109 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,37 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,50 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,16 +584,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,18 +608,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,130 +662,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/static/xlsx/Topluluk Ekibi.xlsx
+++ b/static/xlsx/Topluluk Ekibi.xlsx
@@ -52,7 +52,7 @@
     <t>Sabri Pişkin</t>
   </si>
   <si>
-    <t>Mevcut Topluluk Başkan</t>
+    <t>Mevcut Topluluk Başkanı</t>
   </si>
   <si>
     <t>sabrimertpiskin</t>
@@ -185,8 +185,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -206,12 +206,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -221,7 +236,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,45 +267,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -282,60 +274,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +350,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,13 +380,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,19 +440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,133 +482,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,17 +544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,15 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -594,17 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +607,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -641,151 +630,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
